--- a/data/trans_orig/iP30KDB7_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP30KDB7_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F909401-97E9-4289-923B-5459604BBAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59DFE6F5-14E3-4A49-A2D0-9B9BC3604139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3B364648-CC6F-4F30-AAE6-9FC389052DA3}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E9414856-E375-474F-8B3A-65AF55D8FA6B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -41,10 +41,10 @@
     <t>Menores según si toman 2 yogures y/o 40 g de queso cada día en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,226 +134,226 @@
     <t>3-7</t>
   </si>
   <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
   </si>
   <si>
     <t>56,61%</t>
   </si>
   <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
   </si>
   <si>
     <t>43,39%</t>
   </si>
   <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
   </si>
   <si>
     <t>58,55%</t>
   </si>
   <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
   </si>
   <si>
     <t>41,45%</t>
   </si>
   <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -768,7 +768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8388D64E-92C8-4963-B14F-005CDB0FEE0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4075AAAB-A680-4143-AB41-B9DEF928A2CF}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -886,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D4" s="7">
-        <v>21255</v>
+        <v>32866</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -901,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="I4" s="7">
-        <v>32943</v>
+        <v>22374</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -919,7 +919,7 @@
         <v>98</v>
       </c>
       <c r="N4" s="7">
-        <v>54198</v>
+        <v>55239</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -937,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D5" s="7">
-        <v>21889</v>
+        <v>13629</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -952,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="I5" s="7">
-        <v>13350</v>
+        <v>22911</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -970,7 +970,7 @@
         <v>66</v>
       </c>
       <c r="N5" s="7">
-        <v>35238</v>
+        <v>36540</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -988,25 +988,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>83</v>
+      </c>
+      <c r="D6" s="7">
+        <v>46495</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>81</v>
       </c>
-      <c r="D6" s="7">
-        <v>43144</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>83</v>
-      </c>
       <c r="I6" s="7">
-        <v>46293</v>
+        <v>45285</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1021,7 +1021,7 @@
         <v>164</v>
       </c>
       <c r="N6" s="7">
-        <v>89436</v>
+        <v>91779</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1041,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D7" s="7">
-        <v>101277</v>
+        <v>101464</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1056,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I7" s="7">
-        <v>100498</v>
+        <v>104957</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1074,7 +1074,7 @@
         <v>314</v>
       </c>
       <c r="N7" s="7">
-        <v>201776</v>
+        <v>206422</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1092,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="D8" s="7">
-        <v>73440</v>
+        <v>57835</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1107,10 +1107,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="I8" s="7">
-        <v>58267</v>
+        <v>77002</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1125,7 +1125,7 @@
         <v>219</v>
       </c>
       <c r="N8" s="7">
-        <v>131706</v>
+        <v>134837</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1143,25 +1143,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>258</v>
+      </c>
+      <c r="D9" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>275</v>
       </c>
-      <c r="D9" s="7">
-        <v>174717</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>258</v>
-      </c>
       <c r="I9" s="7">
-        <v>158765</v>
+        <v>181959</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1176,7 +1176,7 @@
         <v>533</v>
       </c>
       <c r="N9" s="7">
-        <v>333482</v>
+        <v>341259</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1199,7 +1199,7 @@
         <v>137</v>
       </c>
       <c r="D10" s="7">
-        <v>113749</v>
+        <v>97730</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1214,7 +1214,7 @@
         <v>137</v>
       </c>
       <c r="I10" s="7">
-        <v>100555</v>
+        <v>120294</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1229,7 +1229,7 @@
         <v>274</v>
       </c>
       <c r="N10" s="7">
-        <v>214304</v>
+        <v>218024</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1247,10 +1247,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D11" s="7">
-        <v>88729</v>
+        <v>75342</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1262,10 +1262,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="I11" s="7">
-        <v>75558</v>
+        <v>92196</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1280,7 +1280,7 @@
         <v>202</v>
       </c>
       <c r="N11" s="7">
-        <v>164287</v>
+        <v>167539</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1298,25 +1298,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>233</v>
+      </c>
+      <c r="D12" s="7">
+        <v>173072</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>243</v>
       </c>
-      <c r="D12" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>233</v>
-      </c>
       <c r="I12" s="7">
-        <v>176113</v>
+        <v>212490</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1331,7 +1331,7 @@
         <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>378591</v>
+        <v>385563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1351,10 +1351,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="D13" s="7">
-        <v>151953</v>
+        <v>129800</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1366,10 +1366,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="I13" s="7">
-        <v>133816</v>
+        <v>157967</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1384,7 +1384,7 @@
         <v>354</v>
       </c>
       <c r="N13" s="7">
-        <v>285769</v>
+        <v>287767</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1402,10 +1402,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="D14" s="7">
-        <v>137041</v>
+        <v>144467</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1417,10 +1417,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="I14" s="7">
-        <v>125622</v>
+        <v>147032</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1435,7 +1435,7 @@
         <v>328</v>
       </c>
       <c r="N14" s="7">
-        <v>262664</v>
+        <v>291499</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1456,7 +1456,7 @@
         <v>341</v>
       </c>
       <c r="D15" s="7">
-        <v>288994</v>
+        <v>274267</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1471,7 +1471,7 @@
         <v>341</v>
       </c>
       <c r="I15" s="7">
-        <v>259438</v>
+        <v>304999</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1486,7 +1486,7 @@
         <v>682</v>
       </c>
       <c r="N15" s="7">
-        <v>548433</v>
+        <v>579266</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1506,10 +1506,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>505</v>
+        <v>535</v>
       </c>
       <c r="D16" s="7">
-        <v>388234</v>
+        <v>361860</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>88</v>
@@ -1521,10 +1521,10 @@
         <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>535</v>
+        <v>505</v>
       </c>
       <c r="I16" s="7">
-        <v>367812</v>
+        <v>405593</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>91</v>
@@ -1539,7 +1539,7 @@
         <v>1040</v>
       </c>
       <c r="N16" s="7">
-        <v>756046</v>
+        <v>767453</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>94</v>
@@ -1557,10 +1557,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>435</v>
+        <v>380</v>
       </c>
       <c r="D17" s="7">
-        <v>321099</v>
+        <v>291274</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>97</v>
@@ -1572,10 +1572,10 @@
         <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>380</v>
+        <v>435</v>
       </c>
       <c r="I17" s="7">
-        <v>272797</v>
+        <v>339140</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>100</v>
@@ -1590,7 +1590,7 @@
         <v>815</v>
       </c>
       <c r="N17" s="7">
-        <v>593896</v>
+        <v>630414</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>103</v>
@@ -1608,25 +1608,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>915</v>
+      </c>
+      <c r="D18" s="7">
+        <v>653134</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>940</v>
       </c>
-      <c r="D18" s="7">
-        <v>709333</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>915</v>
-      </c>
       <c r="I18" s="7">
-        <v>640609</v>
+        <v>744733</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1641,7 +1641,7 @@
         <v>1855</v>
       </c>
       <c r="N18" s="7">
-        <v>1349942</v>
+        <v>1397867</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
